--- a/Fichiers autres/Analyse des écarts.xlsx
+++ b/Fichiers autres/Analyse des écarts.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -251,6 +251,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -260,25 +275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,149 +558,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52.85546875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="2:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="2:3" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="174" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="2:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="2:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
